--- a/data/pca/factorExposure/factorExposure_2009-02-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01651246628792841</v>
+        <v>0.0152271277165226</v>
       </c>
       <c r="C2">
-        <v>-0.0104404639925101</v>
+        <v>0.01160562239124487</v>
       </c>
       <c r="D2">
-        <v>-0.01575990566339058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01530550125662636</v>
+      </c>
+      <c r="E2">
+        <v>-0.000292938114124056</v>
+      </c>
+      <c r="F2">
+        <v>0.006343327418340494</v>
+      </c>
+      <c r="G2">
+        <v>0.01869971498971041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08159687543246948</v>
+        <v>0.08379182966425903</v>
       </c>
       <c r="C4">
-        <v>-0.08092927132177131</v>
+        <v>0.0866116082545315</v>
       </c>
       <c r="D4">
-        <v>0.06718079422118922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06720323138826846</v>
+      </c>
+      <c r="E4">
+        <v>0.003341937443220814</v>
+      </c>
+      <c r="F4">
+        <v>0.03892988268438699</v>
+      </c>
+      <c r="G4">
+        <v>0.03113459333823716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002785121761139943</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001850791232068659</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.356445630115971e-05</v>
+      </c>
+      <c r="E5">
+        <v>-0.003151524798872086</v>
+      </c>
+      <c r="F5">
+        <v>-0.00208473626945149</v>
+      </c>
+      <c r="G5">
+        <v>-0.003480836602030907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1680207253570707</v>
+        <v>0.170447077735122</v>
       </c>
       <c r="C6">
-        <v>0.01858781418958342</v>
+        <v>-0.01021209753553972</v>
       </c>
       <c r="D6">
-        <v>0.05697039807236979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05914164729807484</v>
+      </c>
+      <c r="E6">
+        <v>0.01512588399117132</v>
+      </c>
+      <c r="F6">
+        <v>-0.0584485818405505</v>
+      </c>
+      <c r="G6">
+        <v>-0.01008307939414586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05435852823450738</v>
+        <v>0.05887503355187386</v>
       </c>
       <c r="C7">
-        <v>-0.05777037711748127</v>
+        <v>0.06351941833529492</v>
       </c>
       <c r="D7">
-        <v>0.05075185012446758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05893680824760519</v>
+      </c>
+      <c r="E7">
+        <v>0.04212565564597651</v>
+      </c>
+      <c r="F7">
+        <v>0.06723187247747488</v>
+      </c>
+      <c r="G7">
+        <v>0.04356749354218165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05720984246174703</v>
+        <v>0.05362063369799468</v>
       </c>
       <c r="C8">
-        <v>-0.04510308099830728</v>
+        <v>0.04631593194413729</v>
       </c>
       <c r="D8">
-        <v>-0.0251450096909225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02475991443494146</v>
+      </c>
+      <c r="E8">
+        <v>-0.02958131616611677</v>
+      </c>
+      <c r="F8">
+        <v>0.03828200191626084</v>
+      </c>
+      <c r="G8">
+        <v>-0.005486947252798353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06127210959430997</v>
+        <v>0.06477156557753687</v>
       </c>
       <c r="C9">
-        <v>-0.08760500100398205</v>
+        <v>0.09125113623360612</v>
       </c>
       <c r="D9">
-        <v>0.0913451057030112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08851443227545032</v>
+      </c>
+      <c r="E9">
+        <v>0.006284586027098121</v>
+      </c>
+      <c r="F9">
+        <v>0.06142445514796284</v>
+      </c>
+      <c r="G9">
+        <v>0.00487885877034144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1079799883748263</v>
+        <v>0.09993873237663967</v>
       </c>
       <c r="C10">
-        <v>0.1468645310490206</v>
+        <v>-0.1396059815142825</v>
       </c>
       <c r="D10">
-        <v>-0.101088782068877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09207266550959413</v>
+      </c>
+      <c r="E10">
+        <v>0.007806354333646409</v>
+      </c>
+      <c r="F10">
+        <v>0.0440854383128507</v>
+      </c>
+      <c r="G10">
+        <v>-0.004420611837836039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07895772778696762</v>
+        <v>0.07685733515793151</v>
       </c>
       <c r="C11">
-        <v>-0.129728299916274</v>
+        <v>0.1290076190619061</v>
       </c>
       <c r="D11">
-        <v>0.05805065979739269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05031716683683469</v>
+      </c>
+      <c r="E11">
+        <v>-0.01703249197373126</v>
+      </c>
+      <c r="F11">
+        <v>0.07890150007682906</v>
+      </c>
+      <c r="G11">
+        <v>0.009071103996999676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0828863175038291</v>
+        <v>0.07892755926731143</v>
       </c>
       <c r="C12">
-        <v>-0.1486125367563062</v>
+        <v>0.1497324952144545</v>
       </c>
       <c r="D12">
-        <v>0.06371086647142499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05981975207805407</v>
+      </c>
+      <c r="E12">
+        <v>-0.008429119659987419</v>
+      </c>
+      <c r="F12">
+        <v>0.08531041118521003</v>
+      </c>
+      <c r="G12">
+        <v>0.01193998188108583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04220813231053947</v>
+        <v>0.04267986191155396</v>
       </c>
       <c r="C13">
-        <v>-0.06437891666648299</v>
+        <v>0.07215109122549392</v>
       </c>
       <c r="D13">
-        <v>0.03356082160938623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0332409887263447</v>
+      </c>
+      <c r="E13">
+        <v>0.005069704874758887</v>
+      </c>
+      <c r="F13">
+        <v>0.07704905053895779</v>
+      </c>
+      <c r="G13">
+        <v>0.01196246154031347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01922956496959933</v>
+        <v>0.02267195904916651</v>
       </c>
       <c r="C14">
-        <v>-0.042750351162235</v>
+        <v>0.0430160915969904</v>
       </c>
       <c r="D14">
-        <v>0.05233758870055385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04699259266788074</v>
+      </c>
+      <c r="E14">
+        <v>-0.01126864978346227</v>
+      </c>
+      <c r="F14">
+        <v>0.08603798748145103</v>
+      </c>
+      <c r="G14">
+        <v>-0.002388598797532434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03100965544601396</v>
+        <v>0.03344632442189911</v>
       </c>
       <c r="C15">
-        <v>-0.05617683100818521</v>
+        <v>0.05584453061213857</v>
       </c>
       <c r="D15">
-        <v>0.04643661002341523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04234464442100242</v>
+      </c>
+      <c r="E15">
+        <v>0.009236433744780484</v>
+      </c>
+      <c r="F15">
+        <v>0.03293671265563868</v>
+      </c>
+      <c r="G15">
+        <v>-0.009397106905394654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05728659016460283</v>
+        <v>0.05750322502642016</v>
       </c>
       <c r="C16">
-        <v>-0.1450176053671884</v>
+        <v>0.1442680375636687</v>
       </c>
       <c r="D16">
-        <v>0.07070838023989577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06233208306440875</v>
+      </c>
+      <c r="E16">
+        <v>-0.032165588085503</v>
+      </c>
+      <c r="F16">
+        <v>0.08105734135249067</v>
+      </c>
+      <c r="G16">
+        <v>0.01390056376781777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004929694646778875</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004439933135715648</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001775639924141027</v>
+      </c>
+      <c r="E17">
+        <v>-0.01051763439697371</v>
+      </c>
+      <c r="F17">
+        <v>-0.005360621643323034</v>
+      </c>
+      <c r="G17">
+        <v>-0.01692274529611112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03503185800022863</v>
+        <v>0.05144490898422897</v>
       </c>
       <c r="C18">
-        <v>-0.04486759406419691</v>
+        <v>0.04025905418352847</v>
       </c>
       <c r="D18">
-        <v>-0.004127910773936659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.009902862531677888</v>
+      </c>
+      <c r="E18">
+        <v>-0.002873556070193313</v>
+      </c>
+      <c r="F18">
+        <v>-0.04594408541740232</v>
+      </c>
+      <c r="G18">
+        <v>-0.008573910418721029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05652783301532974</v>
+        <v>0.05694820119002464</v>
       </c>
       <c r="C20">
-        <v>-0.09335848254559141</v>
+        <v>0.09299400502568415</v>
       </c>
       <c r="D20">
-        <v>0.07584882605798325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07386642018491191</v>
+      </c>
+      <c r="E20">
+        <v>-0.02085354912758389</v>
+      </c>
+      <c r="F20">
+        <v>0.07114706822260283</v>
+      </c>
+      <c r="G20">
+        <v>-0.004012389632082686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04148819617873579</v>
+        <v>0.04389874567147444</v>
       </c>
       <c r="C21">
-        <v>-0.05644953369076198</v>
+        <v>0.05470335831263236</v>
       </c>
       <c r="D21">
-        <v>0.004879674473774887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.002375695671454859</v>
+      </c>
+      <c r="E21">
+        <v>0.007834861260149446</v>
+      </c>
+      <c r="F21">
+        <v>0.07794152014026083</v>
+      </c>
+      <c r="G21">
+        <v>0.02728664504229651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04502681200938378</v>
+        <v>0.04360190603999944</v>
       </c>
       <c r="C22">
-        <v>-0.02127243529491048</v>
+        <v>0.02301523705955797</v>
       </c>
       <c r="D22">
-        <v>-0.01603872534294051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03936320330708536</v>
+      </c>
+      <c r="E22">
+        <v>-0.1283766953617489</v>
+      </c>
+      <c r="F22">
+        <v>-0.02218700088547512</v>
+      </c>
+      <c r="G22">
+        <v>0.01249735482814337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04503621166348781</v>
+        <v>0.04360988854457287</v>
       </c>
       <c r="C23">
-        <v>-0.02126468410360091</v>
+        <v>0.02300854312869565</v>
       </c>
       <c r="D23">
-        <v>-0.01606568328635721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03939268084166712</v>
+      </c>
+      <c r="E23">
+        <v>-0.128410634013769</v>
+      </c>
+      <c r="F23">
+        <v>-0.02217878353161135</v>
+      </c>
+      <c r="G23">
+        <v>0.01246120686933074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06685582312850134</v>
+        <v>0.06631351320819494</v>
       </c>
       <c r="C24">
-        <v>-0.1380604690258232</v>
+        <v>0.1360115331876694</v>
       </c>
       <c r="D24">
-        <v>0.06336922407678414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05762447027438612</v>
+      </c>
+      <c r="E24">
+        <v>-0.01210456304431323</v>
+      </c>
+      <c r="F24">
+        <v>0.0754527058711652</v>
+      </c>
+      <c r="G24">
+        <v>0.01343994173000108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0723101066929058</v>
+        <v>0.07067063838859415</v>
       </c>
       <c r="C25">
-        <v>-0.1217686429093614</v>
+        <v>0.1197755469777978</v>
       </c>
       <c r="D25">
-        <v>0.04922602197315682</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.04099417769277218</v>
+      </c>
+      <c r="E25">
+        <v>0.01672058105103205</v>
+      </c>
+      <c r="F25">
+        <v>0.09019350957725109</v>
+      </c>
+      <c r="G25">
+        <v>0.01697767871919378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05522355125383532</v>
+        <v>0.06005951213307609</v>
       </c>
       <c r="C26">
-        <v>-0.06632058161994431</v>
+        <v>0.06765952005621496</v>
       </c>
       <c r="D26">
-        <v>0.02555277708963293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02214144962076306</v>
+      </c>
+      <c r="E26">
+        <v>-0.01206326271129529</v>
+      </c>
+      <c r="F26">
+        <v>0.08094757263997479</v>
+      </c>
+      <c r="G26">
+        <v>-0.0002152012559854222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.170683855556017</v>
+        <v>0.1726932464390079</v>
       </c>
       <c r="C28">
-        <v>0.2273557475710869</v>
+        <v>-0.2290236897211235</v>
       </c>
       <c r="D28">
-        <v>-0.01807042987715</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02486652245990815</v>
+      </c>
+      <c r="E28">
+        <v>0.06260056869092182</v>
+      </c>
+      <c r="F28">
+        <v>0.1305109301801747</v>
+      </c>
+      <c r="G28">
+        <v>-0.007530083372993255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02360871114988976</v>
+        <v>0.02665223193447805</v>
       </c>
       <c r="C29">
-        <v>-0.04652518704046724</v>
+        <v>0.04408646408900245</v>
       </c>
       <c r="D29">
-        <v>0.01066969319719803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.006424526182257531</v>
+      </c>
+      <c r="E29">
+        <v>-0.02679069285461673</v>
+      </c>
+      <c r="F29">
+        <v>0.07854445182392412</v>
+      </c>
+      <c r="G29">
+        <v>-0.0001966559469509071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04000203054263304</v>
+        <v>0.04244070084934719</v>
       </c>
       <c r="C30">
-        <v>-0.06899832465590895</v>
+        <v>0.07671414110103049</v>
       </c>
       <c r="D30">
-        <v>0.1239431240243938</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1109868624199901</v>
+      </c>
+      <c r="E30">
+        <v>0.05742916267556129</v>
+      </c>
+      <c r="F30">
+        <v>0.07523013206314116</v>
+      </c>
+      <c r="G30">
+        <v>-0.02354118599930002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05219679113200992</v>
+        <v>0.05158158423073132</v>
       </c>
       <c r="C31">
-        <v>-0.03167648016808648</v>
+        <v>0.03482770162147699</v>
       </c>
       <c r="D31">
-        <v>0.01080765855759591</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0139103180131295</v>
+      </c>
+      <c r="E31">
+        <v>-0.03591109894435584</v>
+      </c>
+      <c r="F31">
+        <v>0.01544841536977435</v>
+      </c>
+      <c r="G31">
+        <v>0.02669081098962272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04326335350498144</v>
+        <v>0.04791072684014668</v>
       </c>
       <c r="C32">
-        <v>-0.04784566484798102</v>
+        <v>0.04495714040853053</v>
       </c>
       <c r="D32">
-        <v>0.02021493670157838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0213924632121451</v>
+      </c>
+      <c r="E32">
+        <v>-0.03385066920132219</v>
+      </c>
+      <c r="F32">
+        <v>0.006576979505237656</v>
+      </c>
+      <c r="G32">
+        <v>-0.0108209418225201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07840585217168748</v>
+        <v>0.08212260739345725</v>
       </c>
       <c r="C33">
-        <v>-0.1081938968204365</v>
+        <v>0.1170963937571551</v>
       </c>
       <c r="D33">
-        <v>0.06771337328733661</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06890943015314131</v>
+      </c>
+      <c r="E33">
+        <v>-0.02048661142960682</v>
+      </c>
+      <c r="F33">
+        <v>0.07648638592767137</v>
+      </c>
+      <c r="G33">
+        <v>0.006262602257792545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05574327693382926</v>
+        <v>0.05554779782791119</v>
       </c>
       <c r="C34">
-        <v>-0.1226723935532329</v>
+        <v>0.1240850915492536</v>
       </c>
       <c r="D34">
-        <v>0.08203719582607967</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06834021816377688</v>
+      </c>
+      <c r="E34">
+        <v>0.01714810827143722</v>
+      </c>
+      <c r="F34">
+        <v>0.08472706321019954</v>
+      </c>
+      <c r="G34">
+        <v>-0.01661976264324252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02689992400073707</v>
+        <v>0.02877394174616487</v>
       </c>
       <c r="C35">
-        <v>-0.01532013489375641</v>
+        <v>0.01670383965301994</v>
       </c>
       <c r="D35">
-        <v>0.02535496389403897</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0209104440962448</v>
+      </c>
+      <c r="E35">
+        <v>-0.02269176385618811</v>
+      </c>
+      <c r="F35">
+        <v>0.03806275460204136</v>
+      </c>
+      <c r="G35">
+        <v>-0.02549617298516148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02240880852274107</v>
+        <v>0.02716630944122383</v>
       </c>
       <c r="C36">
-        <v>-0.04718677308987267</v>
+        <v>0.04806270974823896</v>
       </c>
       <c r="D36">
-        <v>0.06473125769586593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05528531874982712</v>
+      </c>
+      <c r="E36">
+        <v>-0.01795046878229821</v>
+      </c>
+      <c r="F36">
+        <v>0.03767867420455841</v>
+      </c>
+      <c r="G36">
+        <v>-0.07794555914497435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003617517541596612</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006597636580412508</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.600242693448857e-06</v>
+      </c>
+      <c r="E37">
+        <v>-0.001921333411603999</v>
+      </c>
+      <c r="F37">
+        <v>0.009538533846504705</v>
+      </c>
+      <c r="G37">
+        <v>0.005958554613083842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08425169343012434</v>
+        <v>0.07847979497383928</v>
       </c>
       <c r="C39">
-        <v>-0.1531666762024306</v>
+        <v>0.1478150501767934</v>
       </c>
       <c r="D39">
-        <v>0.04678336789078749</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04002599816292728</v>
+      </c>
+      <c r="E39">
+        <v>-0.01648889646611069</v>
+      </c>
+      <c r="F39">
+        <v>0.1238316046477667</v>
+      </c>
+      <c r="G39">
+        <v>0.05148729770325482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04515698845126218</v>
+        <v>0.0510963725549626</v>
       </c>
       <c r="C40">
-        <v>-0.06040171333091771</v>
+        <v>0.06512777692158776</v>
       </c>
       <c r="D40">
-        <v>0.01479972958641053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.008521599066483898</v>
+      </c>
+      <c r="E40">
+        <v>-0.007844350453686824</v>
+      </c>
+      <c r="F40">
+        <v>0.05872126944029773</v>
+      </c>
+      <c r="G40">
+        <v>-0.03493089782231205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02656973265970455</v>
+        <v>0.02869514724715228</v>
       </c>
       <c r="C41">
-        <v>-0.02116753563103204</v>
+        <v>0.02191948361331559</v>
       </c>
       <c r="D41">
-        <v>-0.008563205203353439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.007204099014058407</v>
+      </c>
+      <c r="E41">
+        <v>-0.008718646346590801</v>
+      </c>
+      <c r="F41">
+        <v>-0.01231272760854746</v>
+      </c>
+      <c r="G41">
+        <v>-0.01258503470710815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04239337554543144</v>
+        <v>0.04184839444171063</v>
       </c>
       <c r="C43">
-        <v>-0.03885866803126709</v>
+        <v>0.03609572986535353</v>
       </c>
       <c r="D43">
-        <v>0.001702683890741856</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.001017052941910149</v>
+      </c>
+      <c r="E43">
+        <v>-0.02848428225336195</v>
+      </c>
+      <c r="F43">
+        <v>0.02517371208114929</v>
+      </c>
+      <c r="G43">
+        <v>0.004843289645528784</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05586688472269255</v>
+        <v>0.06416567583987058</v>
       </c>
       <c r="C44">
-        <v>-0.07905156144440452</v>
+        <v>0.08651550662624913</v>
       </c>
       <c r="D44">
-        <v>0.2837776610225118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2615342476426795</v>
+      </c>
+      <c r="E44">
+        <v>0.03015625556178071</v>
+      </c>
+      <c r="F44">
+        <v>0.171884295525242</v>
+      </c>
+      <c r="G44">
+        <v>-0.1687257287366883</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-9.359700732858138e-06</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.000438074224402743</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>6.713815816633729e-05</v>
+      </c>
+      <c r="E45">
+        <v>-5.264186266839657e-05</v>
+      </c>
+      <c r="F45">
+        <v>0.0001124570154076839</v>
+      </c>
+      <c r="G45">
+        <v>0.0003143262537735045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02666351703902702</v>
+        <v>0.02709723382242178</v>
       </c>
       <c r="C46">
-        <v>-0.03201259018366517</v>
+        <v>0.03130590983497912</v>
       </c>
       <c r="D46">
-        <v>0.01242231255608814</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01040380685329965</v>
+      </c>
+      <c r="E46">
+        <v>-0.03984117200047089</v>
+      </c>
+      <c r="F46">
+        <v>0.06950868196262822</v>
+      </c>
+      <c r="G46">
+        <v>0.03350375427499168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05162049926097134</v>
+        <v>0.05095259993647187</v>
       </c>
       <c r="C47">
-        <v>-0.02302171610037042</v>
+        <v>0.02560709838384278</v>
       </c>
       <c r="D47">
-        <v>-0.02552534258972889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01745041424619553</v>
+      </c>
+      <c r="E47">
+        <v>-0.05722492813501278</v>
+      </c>
+      <c r="F47">
+        <v>-0.0130199345408466</v>
+      </c>
+      <c r="G47">
+        <v>0.03371306778543226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0467081978358727</v>
+        <v>0.05016052724494647</v>
       </c>
       <c r="C48">
-        <v>-0.06760266440177934</v>
+        <v>0.06656434664358279</v>
       </c>
       <c r="D48">
-        <v>0.02436266433864115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0215873633924271</v>
+      </c>
+      <c r="E48">
+        <v>0.01416301761649547</v>
+      </c>
+      <c r="F48">
+        <v>0.05438019793082126</v>
+      </c>
+      <c r="G48">
+        <v>0.02358626605413966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1955303085605647</v>
+        <v>0.1980125057353385</v>
       </c>
       <c r="C49">
-        <v>0.01066984628220521</v>
+        <v>-0.003075702484892725</v>
       </c>
       <c r="D49">
-        <v>0.03320996154672665</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04281706874158013</v>
+      </c>
+      <c r="E49">
+        <v>0.02697446669204869</v>
+      </c>
+      <c r="F49">
+        <v>-0.06292410045313861</v>
+      </c>
+      <c r="G49">
+        <v>-0.005239224292616483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05037778602987653</v>
+        <v>0.05189227096897352</v>
       </c>
       <c r="C50">
-        <v>-0.02931824062410058</v>
+        <v>0.03217218270963156</v>
       </c>
       <c r="D50">
-        <v>0.01944651279725898</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02475700697667205</v>
+      </c>
+      <c r="E50">
+        <v>-0.02623025079613835</v>
+      </c>
+      <c r="F50">
+        <v>0.008499123714347006</v>
+      </c>
+      <c r="G50">
+        <v>0.02581253505942005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.14422761401022</v>
+        <v>0.1377748825823948</v>
       </c>
       <c r="C52">
-        <v>-0.03483128020812318</v>
+        <v>0.03513651759283822</v>
       </c>
       <c r="D52">
-        <v>0.05803663637226374</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05744475281355433</v>
+      </c>
+      <c r="E52">
+        <v>-0.02505049619260336</v>
+      </c>
+      <c r="F52">
+        <v>-0.06470789492654626</v>
+      </c>
+      <c r="G52">
+        <v>0.03496747462511696</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1745048209740106</v>
+        <v>0.1655043818832608</v>
       </c>
       <c r="C53">
-        <v>-0.001358428568036109</v>
+        <v>0.004129258683785227</v>
       </c>
       <c r="D53">
-        <v>0.09705018465980857</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1042422078602888</v>
+      </c>
+      <c r="E53">
+        <v>-0.01721429026370077</v>
+      </c>
+      <c r="F53">
+        <v>-0.1097344344969968</v>
+      </c>
+      <c r="G53">
+        <v>0.06880789207994771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01112798000436322</v>
+        <v>0.01462482174865011</v>
       </c>
       <c r="C54">
-        <v>-0.03190484275706534</v>
+        <v>0.03160384015941944</v>
       </c>
       <c r="D54">
-        <v>0.01869477584825546</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0177981847738107</v>
+      </c>
+      <c r="E54">
+        <v>-0.01970367509666168</v>
+      </c>
+      <c r="F54">
+        <v>0.05766560014908363</v>
+      </c>
+      <c r="G54">
+        <v>-0.0003956718528021065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1200908521168105</v>
+        <v>0.1166439099176821</v>
       </c>
       <c r="C55">
-        <v>-0.005306486314374522</v>
+        <v>0.01129442766975389</v>
       </c>
       <c r="D55">
-        <v>0.06342331459215234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06675011848247314</v>
+      </c>
+      <c r="E55">
+        <v>-0.04793831328412611</v>
+      </c>
+      <c r="F55">
+        <v>-0.03166284093632563</v>
+      </c>
+      <c r="G55">
+        <v>0.07415322351474603</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1810489651357339</v>
+        <v>0.1732407308330122</v>
       </c>
       <c r="C56">
-        <v>0.007212090490800582</v>
+        <v>-0.005954389436925374</v>
       </c>
       <c r="D56">
-        <v>0.04281284811469822</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05347725255203131</v>
+      </c>
+      <c r="E56">
+        <v>-0.03868374570621692</v>
+      </c>
+      <c r="F56">
+        <v>-0.1428974105630289</v>
+      </c>
+      <c r="G56">
+        <v>0.07042441680169205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04472462964506221</v>
+        <v>0.04480019221534577</v>
       </c>
       <c r="C58">
-        <v>-0.09371454674560703</v>
+        <v>0.1006028178866105</v>
       </c>
       <c r="D58">
-        <v>-0.006504226275841186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.001786826901437657</v>
+      </c>
+      <c r="E58">
+        <v>-0.04810444995965638</v>
+      </c>
+      <c r="F58">
+        <v>0.04348995621787434</v>
+      </c>
+      <c r="G58">
+        <v>0.02215562996333161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1864623084919806</v>
+        <v>0.1891412978419882</v>
       </c>
       <c r="C59">
-        <v>0.1777005917430069</v>
+        <v>-0.1827046678041161</v>
       </c>
       <c r="D59">
-        <v>-0.07911015476493269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08008271566495552</v>
+      </c>
+      <c r="E59">
+        <v>-0.002277831133751183</v>
+      </c>
+      <c r="F59">
+        <v>0.05738844769453894</v>
+      </c>
+      <c r="G59">
+        <v>0.03964295099457917</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2163079676375301</v>
+        <v>0.2108786498612721</v>
       </c>
       <c r="C60">
-        <v>-0.01235386794595776</v>
+        <v>0.01855403437565584</v>
       </c>
       <c r="D60">
-        <v>-0.06519318316738106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04494654502201825</v>
+      </c>
+      <c r="E60">
+        <v>-0.01090484027672897</v>
+      </c>
+      <c r="F60">
+        <v>-0.2081537327137678</v>
+      </c>
+      <c r="G60">
+        <v>0.0774604247328565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06524636500433138</v>
+        <v>0.06239740995471718</v>
       </c>
       <c r="C61">
-        <v>-0.1233611232110886</v>
+        <v>0.1206878733966694</v>
       </c>
       <c r="D61">
-        <v>0.03704987669279389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03029701500078183</v>
+      </c>
+      <c r="E61">
+        <v>-0.02718049790290177</v>
+      </c>
+      <c r="F61">
+        <v>0.08307158297415523</v>
+      </c>
+      <c r="G61">
+        <v>0.0249164701079566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1679565518623025</v>
+        <v>0.1641058527059797</v>
       </c>
       <c r="C62">
-        <v>0.01083295774909962</v>
+        <v>-0.008375465775191906</v>
       </c>
       <c r="D62">
-        <v>0.0350163336984341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04721971860535703</v>
+      </c>
+      <c r="E62">
+        <v>-0.03781152748048113</v>
+      </c>
+      <c r="F62">
+        <v>-0.1143315544234563</v>
+      </c>
+      <c r="G62">
+        <v>0.06570153068352477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03730599840173374</v>
+        <v>0.04309874969238022</v>
       </c>
       <c r="C63">
-        <v>-0.06796566151872871</v>
+        <v>0.07208820382464443</v>
       </c>
       <c r="D63">
-        <v>0.02864972948132317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02264637525107909</v>
+      </c>
+      <c r="E63">
+        <v>-0.03122002515460533</v>
+      </c>
+      <c r="F63">
+        <v>0.05142845280459366</v>
+      </c>
+      <c r="G63">
+        <v>-0.02417781444021182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1112378573274667</v>
+        <v>0.1094241560434773</v>
       </c>
       <c r="C64">
-        <v>-0.04948768674852998</v>
+        <v>0.05330567566154201</v>
       </c>
       <c r="D64">
-        <v>0.03555565424008486</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03983026061671557</v>
+      </c>
+      <c r="E64">
+        <v>-0.01510266750591174</v>
+      </c>
+      <c r="F64">
+        <v>-0.03431537142398285</v>
+      </c>
+      <c r="G64">
+        <v>0.00539163345187189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1577978939068901</v>
+        <v>0.1607023757773673</v>
       </c>
       <c r="C65">
-        <v>0.05908837793186007</v>
+        <v>-0.04909367479998949</v>
       </c>
       <c r="D65">
-        <v>0.04811306647872497</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05536294473551347</v>
+      </c>
+      <c r="E65">
+        <v>0.00398216822346454</v>
+      </c>
+      <c r="F65">
+        <v>-0.01529975833890965</v>
+      </c>
+      <c r="G65">
+        <v>0.01725808221046106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1024629024827525</v>
+        <v>0.09556688761299256</v>
       </c>
       <c r="C66">
-        <v>-0.1305885886718794</v>
+        <v>0.1302311683245305</v>
       </c>
       <c r="D66">
-        <v>0.04798852219835912</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03819688750826852</v>
+      </c>
+      <c r="E66">
+        <v>-0.009816767205052281</v>
+      </c>
+      <c r="F66">
+        <v>0.101109492557713</v>
+      </c>
+      <c r="G66">
+        <v>0.006309203091395938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05762794429719364</v>
+        <v>0.04855661512804484</v>
       </c>
       <c r="C67">
-        <v>-0.0808060211711258</v>
+        <v>0.07348429607768128</v>
       </c>
       <c r="D67">
-        <v>-0.05157360945972897</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05304240720179534</v>
+      </c>
+      <c r="E67">
+        <v>-0.07826596653891293</v>
+      </c>
+      <c r="F67">
+        <v>-0.03263600726734232</v>
+      </c>
+      <c r="G67">
+        <v>0.003103650217840219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1391733968379714</v>
+        <v>0.1416265729663114</v>
       </c>
       <c r="C68">
-        <v>0.2466336462680837</v>
+        <v>-0.2498415419013531</v>
       </c>
       <c r="D68">
-        <v>-0.03818089095386261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03994037143088415</v>
+      </c>
+      <c r="E68">
+        <v>0.1051543955684772</v>
+      </c>
+      <c r="F68">
+        <v>0.115548372566185</v>
+      </c>
+      <c r="G68">
+        <v>0.022703647264649</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03904647542824862</v>
+        <v>0.03859954172815833</v>
       </c>
       <c r="C69">
-        <v>-0.01224356584056702</v>
+        <v>0.01430153382273585</v>
       </c>
       <c r="D69">
-        <v>0.003327267017795199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007195592828141582</v>
+      </c>
+      <c r="E69">
+        <v>-0.06309841580958823</v>
+      </c>
+      <c r="F69">
+        <v>-0.04314205652048106</v>
+      </c>
+      <c r="G69">
+        <v>-0.02137477967864554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.06995333524382893</v>
+        <v>0.07144161878369606</v>
       </c>
       <c r="C70">
-        <v>-0.08094286029972779</v>
+        <v>0.07437355499424576</v>
       </c>
       <c r="D70">
-        <v>-0.5315128643273127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.4285958114780556</v>
+      </c>
+      <c r="E70">
+        <v>-0.1880870759549887</v>
+      </c>
+      <c r="F70">
+        <v>-0.3683144997787719</v>
+      </c>
+      <c r="G70">
+        <v>0.4157828243218768</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.16128251506658</v>
+        <v>0.1651630238530395</v>
       </c>
       <c r="C71">
-        <v>0.2538772313121485</v>
+        <v>-0.2542323846000004</v>
       </c>
       <c r="D71">
-        <v>-0.03856666976929365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04296538339685301</v>
+      </c>
+      <c r="E71">
+        <v>0.1155489871540899</v>
+      </c>
+      <c r="F71">
+        <v>0.116854060082814</v>
+      </c>
+      <c r="G71">
+        <v>0.02499393183354194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1429962897360932</v>
+        <v>0.1481706078638026</v>
       </c>
       <c r="C72">
-        <v>-0.01023044224677436</v>
+        <v>0.008540027620791354</v>
       </c>
       <c r="D72">
-        <v>0.07274894221254403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06492575051946754</v>
+      </c>
+      <c r="E72">
+        <v>-0.041678771554497</v>
+      </c>
+      <c r="F72">
+        <v>-0.01891112272868535</v>
+      </c>
+      <c r="G72">
+        <v>-0.006648837622683792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1927297396619131</v>
+        <v>0.20013849449133</v>
       </c>
       <c r="C73">
-        <v>-0.02016449449710917</v>
+        <v>0.02876846625751181</v>
       </c>
       <c r="D73">
-        <v>0.05614547177900074</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06440567439901008</v>
+      </c>
+      <c r="E73">
+        <v>-0.07095410887114584</v>
+      </c>
+      <c r="F73">
+        <v>-0.1076178014957045</v>
+      </c>
+      <c r="G73">
+        <v>-0.02397280648453343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08642509532919961</v>
+        <v>0.0855750825303547</v>
       </c>
       <c r="C74">
-        <v>-0.002944787919017583</v>
+        <v>0.009795425308579924</v>
       </c>
       <c r="D74">
-        <v>0.07157271745635514</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.07756691760152823</v>
+      </c>
+      <c r="E74">
+        <v>-0.02587637647018071</v>
+      </c>
+      <c r="F74">
+        <v>-0.06479017068981545</v>
+      </c>
+      <c r="G74">
+        <v>1.479172609934999e-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1240259253388295</v>
+        <v>0.1162794658126494</v>
       </c>
       <c r="C75">
-        <v>-0.01872448276388804</v>
+        <v>0.02232115888372265</v>
       </c>
       <c r="D75">
-        <v>0.05462725764652474</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.05610887168932067</v>
+      </c>
+      <c r="E75">
+        <v>-0.06075400835944465</v>
+      </c>
+      <c r="F75">
+        <v>-0.05755940756707096</v>
+      </c>
+      <c r="G75">
+        <v>0.04859319303277436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07146890667920326</v>
+        <v>0.08657957872525748</v>
       </c>
       <c r="C77">
-        <v>-0.1139254301305418</v>
+        <v>0.112988309949885</v>
       </c>
       <c r="D77">
-        <v>0.07093897947782046</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07546614134977454</v>
+      </c>
+      <c r="E77">
+        <v>0.009308222575074465</v>
+      </c>
+      <c r="F77">
+        <v>0.0800716594981392</v>
+      </c>
+      <c r="G77">
+        <v>0.1070050185056783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08817380140761658</v>
+        <v>0.09247712170058717</v>
       </c>
       <c r="C78">
-        <v>-0.1293663850446599</v>
+        <v>0.1280556909568804</v>
       </c>
       <c r="D78">
-        <v>0.08155063934362269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06212213340043143</v>
+      </c>
+      <c r="E78">
+        <v>0.007929552085106761</v>
+      </c>
+      <c r="F78">
+        <v>0.1232629225933616</v>
+      </c>
+      <c r="G78">
+        <v>0.08945018473421991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1673899647907451</v>
+        <v>0.1624164967207601</v>
       </c>
       <c r="C79">
-        <v>-0.01658453460357525</v>
+        <v>0.01721914867682946</v>
       </c>
       <c r="D79">
-        <v>0.02872538874584132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03173684085269018</v>
+      </c>
+      <c r="E79">
+        <v>-0.0385614279483741</v>
+      </c>
+      <c r="F79">
+        <v>-0.04875236460376803</v>
+      </c>
+      <c r="G79">
+        <v>0.0473498535781724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07540233195287319</v>
+        <v>0.07338517008588916</v>
       </c>
       <c r="C80">
-        <v>-0.05853990317544394</v>
+        <v>0.05728976410888012</v>
       </c>
       <c r="D80">
-        <v>0.01315802249238563</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.002045060507526996</v>
+      </c>
+      <c r="E80">
+        <v>-0.05293319692298061</v>
+      </c>
+      <c r="F80">
+        <v>0.1149680637609619</v>
+      </c>
+      <c r="G80">
+        <v>-0.09596497288869672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.110716486007363</v>
+        <v>0.1046925540222535</v>
       </c>
       <c r="C81">
-        <v>0.01663642088329719</v>
+        <v>-0.01321366222826187</v>
       </c>
       <c r="D81">
-        <v>0.02481421822782974</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02908626559092648</v>
+      </c>
+      <c r="E81">
+        <v>-0.05995605609143867</v>
+      </c>
+      <c r="F81">
+        <v>-0.0618406136349216</v>
+      </c>
+      <c r="G81">
+        <v>0.0169100731269274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1607170641598978</v>
+        <v>0.1571729136358102</v>
       </c>
       <c r="C82">
-        <v>0.02487983001995207</v>
+        <v>-0.01871999945264867</v>
       </c>
       <c r="D82">
-        <v>0.08771533853527887</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09518340855982609</v>
+      </c>
+      <c r="E82">
+        <v>-0.008412198040367644</v>
+      </c>
+      <c r="F82">
+        <v>-0.1024226853275511</v>
+      </c>
+      <c r="G82">
+        <v>0.003460259055091924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05281911815229726</v>
+        <v>0.04908030460873074</v>
       </c>
       <c r="C83">
-        <v>-0.0600667463715266</v>
+        <v>0.05619363806334151</v>
       </c>
       <c r="D83">
-        <v>-0.0096132656635033</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01146280633313958</v>
+      </c>
+      <c r="E83">
+        <v>-0.01119024877088953</v>
+      </c>
+      <c r="F83">
+        <v>0.00761337442026958</v>
+      </c>
+      <c r="G83">
+        <v>0.01600141506779726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05054642452277441</v>
+        <v>0.0479076371547654</v>
       </c>
       <c r="C84">
-        <v>-0.07279106128244935</v>
+        <v>0.07040389144020101</v>
       </c>
       <c r="D84">
-        <v>0.002043143009182419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002123566588352947</v>
+      </c>
+      <c r="E84">
+        <v>-0.01010045380026025</v>
+      </c>
+      <c r="F84">
+        <v>-0.01281432997488116</v>
+      </c>
+      <c r="G84">
+        <v>0.03208606810575208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1399379344854805</v>
+        <v>0.133973741704932</v>
       </c>
       <c r="C85">
-        <v>-0.006902545391788694</v>
+        <v>0.009699986211550455</v>
       </c>
       <c r="D85">
-        <v>0.09156584772375304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09085885711432777</v>
+      </c>
+      <c r="E85">
+        <v>-0.02190674061061625</v>
+      </c>
+      <c r="F85">
+        <v>-0.0405960591945979</v>
+      </c>
+      <c r="G85">
+        <v>0.03393159336748083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08390011592944406</v>
+        <v>0.08178566609835793</v>
       </c>
       <c r="C86">
-        <v>-0.1010367203004639</v>
+        <v>0.1015257778625037</v>
       </c>
       <c r="D86">
-        <v>-0.5104361650067589</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.5797600495134509</v>
+      </c>
+      <c r="E86">
+        <v>-0.4387848974944528</v>
+      </c>
+      <c r="F86">
+        <v>0.4825241017149189</v>
+      </c>
+      <c r="G86">
+        <v>-0.08079609400049921</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08860968063336142</v>
+        <v>0.08748992551727416</v>
       </c>
       <c r="C87">
-        <v>-0.08592740611367691</v>
+        <v>0.08723668001106125</v>
       </c>
       <c r="D87">
-        <v>0.05652450751572816</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.04368814347347058</v>
+      </c>
+      <c r="E87">
+        <v>0.09739658577028498</v>
+      </c>
+      <c r="F87">
+        <v>0.09177552135212821</v>
+      </c>
+      <c r="G87">
+        <v>-0.06527307728695821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06040309475308032</v>
+        <v>0.06009358887724151</v>
       </c>
       <c r="C88">
-        <v>-0.05897940236370891</v>
+        <v>0.05972321175307246</v>
       </c>
       <c r="D88">
-        <v>0.01386691862418867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01666689862415129</v>
+      </c>
+      <c r="E88">
+        <v>-0.01494642537519303</v>
+      </c>
+      <c r="F88">
+        <v>-0.02588037559084692</v>
+      </c>
+      <c r="G88">
+        <v>0.01506069371201154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1479054498061382</v>
+        <v>0.149964830327953</v>
       </c>
       <c r="C89">
-        <v>0.1948430048859432</v>
+        <v>-0.2068128381627158</v>
       </c>
       <c r="D89">
-        <v>-0.01570991293669986</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0259747686858445</v>
+      </c>
+      <c r="E89">
+        <v>0.09319187241621564</v>
+      </c>
+      <c r="F89">
+        <v>0.08897025079521206</v>
+      </c>
+      <c r="G89">
+        <v>-0.003635268690680992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1755231220941719</v>
+        <v>0.1823907411618819</v>
       </c>
       <c r="C90">
-        <v>0.22985607020367</v>
+        <v>-0.2382431564260186</v>
       </c>
       <c r="D90">
-        <v>-0.05192465729474493</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.06075730262817836</v>
+      </c>
+      <c r="E90">
+        <v>0.1432827830691299</v>
+      </c>
+      <c r="F90">
+        <v>0.1346384656926309</v>
+      </c>
+      <c r="G90">
+        <v>0.00659139035013821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1262267808419713</v>
+        <v>0.1204397990821674</v>
       </c>
       <c r="C91">
-        <v>0.02232654481776191</v>
+        <v>-0.02038967717154163</v>
       </c>
       <c r="D91">
-        <v>0.02020100024792214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02047546466319955</v>
+      </c>
+      <c r="E91">
+        <v>-0.09303507819597695</v>
+      </c>
+      <c r="F91">
+        <v>-0.0903899519972004</v>
+      </c>
+      <c r="G91">
+        <v>0.001852742418175314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1698231832315419</v>
+        <v>0.1723379337854521</v>
       </c>
       <c r="C92">
-        <v>0.2656204564728465</v>
+        <v>-0.2777466165220536</v>
       </c>
       <c r="D92">
-        <v>-0.0531376225184554</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05050853519142771</v>
+      </c>
+      <c r="E92">
+        <v>0.100755753679203</v>
+      </c>
+      <c r="F92">
+        <v>0.1769032103898529</v>
+      </c>
+      <c r="G92">
+        <v>0.06499144226257146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1764207557796044</v>
+        <v>0.1836247464882896</v>
       </c>
       <c r="C93">
-        <v>0.2226977446879698</v>
+        <v>-0.229942491971512</v>
       </c>
       <c r="D93">
-        <v>-0.02895617633024871</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02943420566397107</v>
+      </c>
+      <c r="E93">
+        <v>0.06955563375505311</v>
+      </c>
+      <c r="F93">
+        <v>0.0907704369336681</v>
+      </c>
+      <c r="G93">
+        <v>0.0652007492799201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1193821037333675</v>
+        <v>0.1137493434920353</v>
       </c>
       <c r="C94">
-        <v>-0.03251793222512955</v>
+        <v>0.03316345805054648</v>
       </c>
       <c r="D94">
-        <v>0.04833345410171768</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04875062068449638</v>
+      </c>
+      <c r="E94">
+        <v>-0.06114372106651694</v>
+      </c>
+      <c r="F94">
+        <v>-0.05630210935420752</v>
+      </c>
+      <c r="G94">
+        <v>0.04273098453108948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1195156486487036</v>
+        <v>0.1224696303406667</v>
       </c>
       <c r="C95">
-        <v>-0.1081413984386329</v>
+        <v>0.1163437537041214</v>
       </c>
       <c r="D95">
-        <v>0.000781423732008142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.005512274543625928</v>
+      </c>
+      <c r="E95">
+        <v>-0.05162400892939039</v>
+      </c>
+      <c r="F95">
+        <v>0.04836586293250938</v>
+      </c>
+      <c r="G95">
+        <v>0.004622404820718249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1238383212979333</v>
+        <v>0.1216566641482535</v>
       </c>
       <c r="C96">
-        <v>-0.118616639788226</v>
+        <v>0.1266977758702835</v>
       </c>
       <c r="D96">
-        <v>-0.06575678435477095</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.03162069050401511</v>
+      </c>
+      <c r="E96">
+        <v>-0.07862043326119453</v>
+      </c>
+      <c r="F96">
+        <v>-0.1545000196985109</v>
+      </c>
+      <c r="G96">
+        <v>0.04791473110857981</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1925959350843231</v>
+        <v>0.1971615185809384</v>
       </c>
       <c r="C97">
-        <v>0.002401728389482873</v>
+        <v>-0.003490357045167058</v>
       </c>
       <c r="D97">
-        <v>-0.1284316250123818</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1645262157035869</v>
+      </c>
+      <c r="E97">
+        <v>-0.1004608270798156</v>
+      </c>
+      <c r="F97">
+        <v>-0.287675982322638</v>
+      </c>
+      <c r="G97">
+        <v>-0.826610396791752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1993457586515403</v>
+        <v>0.2045664347554874</v>
       </c>
       <c r="C98">
-        <v>-0.02639062238738032</v>
+        <v>0.03162541147767233</v>
       </c>
       <c r="D98">
-        <v>-0.1129090914859212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1013370794046524</v>
+      </c>
+      <c r="E98">
+        <v>0.03244908587706872</v>
+      </c>
+      <c r="F98">
+        <v>-0.09726626799833361</v>
+      </c>
+      <c r="G98">
+        <v>0.008499170349332359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05351202535305314</v>
+        <v>0.05337927662760761</v>
       </c>
       <c r="C99">
-        <v>-0.05217589178079133</v>
+        <v>0.05412759983385646</v>
       </c>
       <c r="D99">
-        <v>0.009793071032078257</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.008982523467672275</v>
+      </c>
+      <c r="E99">
+        <v>-0.0005052119895214383</v>
+      </c>
+      <c r="F99">
+        <v>0.04035610501546057</v>
+      </c>
+      <c r="G99">
+        <v>-0.008184802998878058</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1145264637801427</v>
+        <v>0.1082628615969447</v>
       </c>
       <c r="C100">
-        <v>-0.4115253013355522</v>
+        <v>0.3758637563383862</v>
       </c>
       <c r="D100">
-        <v>-0.3741988210453622</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.4223223243583841</v>
+      </c>
+      <c r="E100">
+        <v>0.7484692224933538</v>
+      </c>
+      <c r="F100">
+        <v>-0.03863222343576463</v>
+      </c>
+      <c r="G100">
+        <v>-0.02997814523478729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02354419272204285</v>
+        <v>0.02659531344400702</v>
       </c>
       <c r="C101">
-        <v>-0.04607528954483607</v>
+        <v>0.04359928066077581</v>
       </c>
       <c r="D101">
-        <v>0.006360627450011871</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.003201023381561519</v>
+      </c>
+      <c r="E101">
+        <v>-0.02782046069642701</v>
+      </c>
+      <c r="F101">
+        <v>0.073461098913981</v>
+      </c>
+      <c r="G101">
+        <v>0.002977819524922326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
